--- a/Doc/Project Outputs for 2414_SAG/2414_SAG.xlsx
+++ b/Doc/Project Outputs for 2414_SAG/2414_SAG.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\2414_SAG\Project Outputs for 2414_SAG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD88B336-E0C6-40AE-9C42-131AC0E7E1AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B35D83AD-F74F-4C2F-8C15-A49B41B29BC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23430" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BOM Simple" sheetId="1" r:id="rId1"/>
+    <sheet name="BOM Cost Report" sheetId="1" r:id="rId1"/>
+    <sheet name="Project Information" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'BOM Simple'!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'BOM Simple'!$A$1:$K$8</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'BOM Cost Report'!$4:$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'BOM Cost Report'!$A$1:$L$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,41 +35,144 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
-  <si>
-    <t>Pos.</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>ETML</t>
-  </si>
-  <si>
-    <t>Dessiné</t>
-  </si>
-  <si>
-    <t>Controlé</t>
-  </si>
-  <si>
-    <t>Circuit-imprimé</t>
-  </si>
-  <si>
-    <t>Numéro</t>
-  </si>
-  <si>
-    <t>Titre</t>
-  </si>
-  <si>
-    <t>Remarques</t>
-  </si>
-  <si>
-    <t>AAAA-MM-JJ</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Project Full Path</t>
+  </si>
+  <si>
+    <t>Variant Name</t>
+  </si>
+  <si>
+    <t>Project Filename</t>
+  </si>
+  <si>
+    <t>Data-Source Filename</t>
+  </si>
+  <si>
+    <t>Data-Source Full Path</t>
+  </si>
+  <si>
+    <t>Total Quantity</t>
+  </si>
+  <si>
+    <t>Report Time</t>
+  </si>
+  <si>
+    <t>Report Date</t>
+  </si>
+  <si>
+    <t>Output Name</t>
+  </si>
+  <si>
+    <t>Report Date &amp; Tine</t>
+  </si>
+  <si>
+    <t>Output Type</t>
+  </si>
+  <si>
+    <t>Output Generator Name</t>
+  </si>
+  <si>
+    <t>Output Generator Description</t>
+  </si>
+  <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>TPA_v2.PrjPcb</t>
+  </si>
+  <si>
+    <t>22.05.2021</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>D:\Users\Jose\OneDrive\Documents\3-Engineering\Altium\Projects\PousseAvion\TPA_v2\TPA_v2.PrjPcb</t>
+  </si>
+  <si>
+    <t>Batch2-BOM_Digikey for Project [TPA_v2.PrjPcb] (No PCB Document Selected)</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>00:02</t>
+  </si>
+  <si>
+    <t>22.05.2021 00:02</t>
+  </si>
+  <si>
+    <t>Batch2-BOM_Digikey</t>
+  </si>
+  <si>
+    <t>BOM_PartType</t>
+  </si>
+  <si>
+    <t>BOM</t>
+  </si>
+  <si>
+    <t>Bill of Materials</t>
+  </si>
+  <si>
+    <t>BOM Cost</t>
+  </si>
+  <si>
+    <t>PROJET:</t>
+  </si>
+  <si>
+    <t>Variante:</t>
+  </si>
+  <si>
+    <t>Par:</t>
+  </si>
+  <si>
+    <t>ETML-ES</t>
+  </si>
+  <si>
+    <t>Rue de Sébeillon 12
+1004 Lausanne</t>
+  </si>
+  <si>
+    <t>Quantité de production (nb PCBs) :</t>
+  </si>
+  <si>
+    <t>Devise :</t>
   </si>
   <si>
     <t>2414_SAG.PrjPcb</t>
   </si>
   <si>
+    <t>13.06.2025</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2414_SAG.BomDoc</t>
+  </si>
+  <si>
+    <t>CHF</t>
+  </si>
+  <si>
+    <t>Line #</t>
+  </si>
+  <si>
     <t>Designator</t>
   </si>
   <si>
@@ -78,6 +182,9 @@
     <t>R1, R2</t>
   </si>
   <si>
+    <t>Value</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -87,10 +194,19 @@
     <t>330R</t>
   </si>
   <si>
-    <t>Footprint</t>
-  </si>
-  <si>
-    <t>RESC2012X06M</t>
+    <t>Manufacturer 1</t>
+  </si>
+  <si>
+    <t>Wurth Electronics</t>
+  </si>
+  <si>
+    <t>Yageo</t>
+  </si>
+  <si>
+    <t>Manufacturer Part Number 1</t>
+  </si>
+  <si>
+    <t>RC0805FR-07330RL</t>
   </si>
   <si>
     <t>Quantity</t>
@@ -105,33 +221,41 @@
     <t>Newark</t>
   </si>
   <si>
-    <t>#Column Name Error:' Supplier 1 Number</t>
-  </si>
-  <si>
-    <t>#Column Name Error:' Supplier 1 Price</t>
-  </si>
-  <si>
-    <t>Manufacturer</t>
-  </si>
-  <si>
-    <t>Yageo</t>
-  </si>
-  <si>
-    <t>Manufacturer Number</t>
-  </si>
-  <si>
-    <t>RC0805FR-07330RL</t>
+    <t>Supplier Part Number 1</t>
+  </si>
+  <si>
+    <t>710-691413720003B</t>
+  </si>
+  <si>
+    <t>49AK3219</t>
+  </si>
+  <si>
+    <t>Supplier Order Qty 1</t>
+  </si>
+  <si>
+    <t>Supplier Unit Price 1</t>
+  </si>
+  <si>
+    <t>Supplier Subtotal 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="&quot;CHF&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -140,47 +264,131 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="14"/>
+      <b/>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="28"/>
-      <name val="ETML"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="28"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -192,15 +400,117 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -211,124 +521,13 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <left style="dashed">
         <color indexed="64"/>
       </left>
       <right/>
@@ -337,8 +536,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="medium">
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
         <color indexed="64"/>
       </right>
       <top/>
@@ -346,9 +578,124 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left/>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
       </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -360,216 +707,382 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="4"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="16" fillId="4" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Sortie" xfId="2" builtinId="21"/>
+    <cellStyle name="Titre 1" xfId="1" builtinId="16"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -848,214 +1361,469 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="82" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="28" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="33"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="29" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="85" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="30" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="86" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="55" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" s="54" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="57"/>
+      <c r="B5" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="57"/>
+      <c r="D5" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="57">
+        <v>2</v>
+      </c>
+      <c r="H5" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="58">
+        <v>2</v>
+      </c>
+      <c r="K5" s="60">
+        <v>1</v>
+      </c>
+      <c r="L5" s="62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="57"/>
+      <c r="B6" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="57">
+        <v>330</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="57">
+        <v>2</v>
+      </c>
+      <c r="H6" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="58">
+        <v>2</v>
+      </c>
+      <c r="K6" s="60">
+        <v>4.8399999999999997E-3</v>
+      </c>
+      <c r="L6" s="62">
+        <v>9.6799999999999994E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="57"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="62"/>
+    </row>
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="67"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="73">
+        <f>SUM(L5:L7)</f>
+        <v>2.0096799999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" customFormat="1" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="78"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="21"/>
+    </row>
+    <row r="10" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="22"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="23"/>
+    </row>
+    <row r="11" spans="1:12" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="24"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="21"/>
+    </row>
+    <row r="12" spans="1:12" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="25"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <conditionalFormatting sqref="A5:L7">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$A5="not fitted"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="10" pageOrder="overThenDown" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;C&amp;D&amp;RPage &amp;P / &amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="255" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="108.5703125" style="3" customWidth="1"/>
+    <col min="3" max="256" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:2" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="B5" s="37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="39"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="41"/>
-    </row>
-    <row r="3" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41"/>
-    </row>
-    <row r="4" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="16" t="s">
+      <c r="B9" s="37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="B11" s="37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="23">
-        <f>ROW(A5) - ROW($A$4)</f>
-        <v>1</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="24" t="s">
+      <c r="B13" s="37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="5" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="26">
-        <v>2</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27">
-        <f>H5*E5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="17">
-        <f>ROW(A6) - ROW($A$4)</f>
-        <v>2</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="20">
-        <v>2</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="21">
-        <f>H6*E6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
-        <f>ROW(A7) - ROW($A$4)</f>
-        <v>3</v>
-      </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32">
-        <f>H7*E7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" s="34">
-        <f>SUM(K5:K7)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I21" s="3"/>
+      <c r="B14" s="38" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H1:I3"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001ABD9BFFC9E543439C53A2705AE306EF" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="ab6de7b9692122cc9a1fc8aa070aa1a8">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xmlns:ns3="bf2f2df3-a963-4452-b0e7-67dabc627c35" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="095c1ef261aed4bf0ea78334e35a510c" ns2:_="" ns3:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001ABD9BFFC9E543439C53A2705AE306EF" ma:contentTypeVersion="9" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="489c233d1c6f7eaaf9a5a2ed0dc16d76">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xmlns:ns3="bf2f2df3-a963-4452-b0e7-67dabc627c35" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a339fc56d938ba660222ed7ffed24fbb" ns2:_="" ns3:_="">
     <xsd:import namespace="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
     <xsd:import namespace="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
     <xsd:element name="properties">
@@ -1068,15 +1836,11 @@
                 <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1127,53 +1891,31 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="14" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="19" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1276,23 +2018,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C40B2241-1B29-4263-BD17-87BC8DE4E579}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BC263B7-F2C4-4C0B-B4B1-46F47AE59AE3}">
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B3807B8-4C1F-4F57-98AA-41482CF598FE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -1308,21 +2043,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EAA0654-62D0-4E97-9266-75C0C821868A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD8649B2-441E-4695-8F53-41C2DE3513C6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>